--- a/sportsbook/premier-league-2018-2019.xlsx
+++ b/sportsbook/premier-league-2018-2019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="433">
   <si>
     <t>联赛名称</t>
   </si>
@@ -151,8 +151,799 @@
     <t>2018-2019</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018-08-11 03:00 星期六_x000D_
-                </t>
+    <t xml:space="preserve"> 2018-08-12 20:30 </t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>南安普敦</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>伯恩利</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>36.8%</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>79540575</t>
+  </si>
+  <si>
+    <t>William Hill</t>
+  </si>
+  <si>
+    <t>威廉希尔(英国)</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>48.42</t>
+  </si>
+  <si>
+    <t>28.46</t>
+  </si>
+  <si>
+    <t>23.12</t>
+  </si>
+  <si>
+    <t>47.27</t>
+  </si>
+  <si>
+    <t>29.09</t>
+  </si>
+  <si>
+    <t>23.64</t>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>半球/一球</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>半球</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551745</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>79540558</t>
+  </si>
+  <si>
+    <t>Ladbrokes</t>
+  </si>
+  <si>
+    <t>立博(英国)</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>47.14</t>
+  </si>
+  <si>
+    <t>30.41</t>
+  </si>
+  <si>
+    <t>22.45</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>80290795</t>
+  </si>
+  <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>Oddset(德国)</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>48.06</t>
+  </si>
+  <si>
+    <t>27.91</t>
+  </si>
+  <si>
+    <t>24.03</t>
+  </si>
+  <si>
+    <t>46.92</t>
+  </si>
+  <si>
+    <t>29.93</t>
+  </si>
+  <si>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-08-12 00:30 </t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>狼队</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>65.2%</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>埃弗顿</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>34.2%</t>
+  </si>
+  <si>
+    <t>79540574</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>41.72</t>
+  </si>
+  <si>
+    <t>28.68</t>
+  </si>
+  <si>
+    <t>29.6</t>
+  </si>
+  <si>
+    <t>40.64</t>
+  </si>
+  <si>
+    <t>29.21</t>
+  </si>
+  <si>
+    <t>30.15</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>平手/半球</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551747</t>
+  </si>
+  <si>
+    <t>79540560</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>27.12</t>
+  </si>
+  <si>
+    <t>38.74</t>
+  </si>
+  <si>
+    <t>39.74</t>
+  </si>
+  <si>
+    <t>30.13</t>
+  </si>
+  <si>
+    <t>80268454</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>40.25</t>
+  </si>
+  <si>
+    <t>28.85</t>
+  </si>
+  <si>
+    <t>30.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-08-11 22:00 </t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>沃特福德</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>28.9%</t>
+  </si>
+  <si>
+    <t>Brighton   Hove Albion</t>
+  </si>
+  <si>
+    <t>布莱顿</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>23.7%</t>
+  </si>
+  <si>
+    <t>79540576</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>35.89</t>
+  </si>
+  <si>
+    <t>32.76</t>
+  </si>
+  <si>
+    <t>31.34</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551746</t>
+  </si>
+  <si>
+    <t>79540559</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>42.01</t>
+  </si>
+  <si>
+    <t>27.18</t>
+  </si>
+  <si>
+    <t>30.81</t>
+  </si>
+  <si>
+    <t>38.85</t>
+  </si>
+  <si>
+    <t>31.08</t>
+  </si>
+  <si>
+    <t>30.08</t>
+  </si>
+  <si>
+    <t>80270300</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>41.25</t>
+  </si>
+  <si>
+    <t>29.87</t>
+  </si>
+  <si>
+    <t>28.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-08-11 19:30 </t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>纽卡斯尔联</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>31.6%</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>托特纳姆热刺</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>60.5%</t>
+  </si>
+  <si>
+    <t>79540578</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>20.46</t>
+  </si>
+  <si>
+    <t>26.31</t>
+  </si>
+  <si>
+    <t>53.23</t>
+  </si>
+  <si>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>28.87</t>
+  </si>
+  <si>
+    <t>50.73</t>
+  </si>
+  <si>
+    <t>受让半球</t>
+  </si>
+  <si>
+    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551744</t>
+  </si>
+  <si>
+    <t>79540557</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>21.25</t>
+  </si>
+  <si>
+    <t>25.56</t>
+  </si>
+  <si>
+    <t>53.19</t>
+  </si>
+  <si>
+    <t>21.85</t>
+  </si>
+  <si>
+    <t>27.03</t>
+  </si>
+  <si>
+    <t>51.13</t>
+  </si>
+  <si>
+    <t>80238068</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>26.06</t>
+  </si>
+  <si>
+    <t>45.27</t>
+  </si>
+  <si>
+    <t>25.42</t>
+  </si>
+  <si>
+    <t>27.88</t>
+  </si>
+  <si>
+    <t>46.71</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>利物浦</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>55.3%</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>西汉姆联</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>26.3%</t>
+  </si>
+  <si>
+    <t>79540577</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>71.8</t>
+  </si>
+  <si>
+    <t>16.71</t>
+  </si>
+  <si>
+    <t>11.49</t>
+  </si>
+  <si>
+    <t>77.56</t>
+  </si>
+  <si>
+    <t>14.56</t>
+  </si>
+  <si>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>球半/两球</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551743</t>
+  </si>
+  <si>
+    <t>79540555</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>79.07</t>
+  </si>
+  <si>
+    <t>13.22</t>
+  </si>
+  <si>
+    <t>7.71</t>
+  </si>
+  <si>
+    <t>78.03</t>
+  </si>
+  <si>
+    <t>14.65</t>
+  </si>
+  <si>
+    <t>7.32</t>
+  </si>
+  <si>
+    <t>80290780</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>70.96</t>
+  </si>
+  <si>
+    <t>18.22</t>
+  </si>
+  <si>
+    <t>10.82</t>
+  </si>
+  <si>
+    <t>73.52</t>
+  </si>
+  <si>
+    <t>17.35</t>
+  </si>
+  <si>
+    <t>9.13</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>哈德斯菲尔德</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>切尔西</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>79540571</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>21.04</t>
+  </si>
+  <si>
+    <t>60.74</t>
+  </si>
+  <si>
+    <t>13.55</t>
+  </si>
+  <si>
+    <t>25.28</t>
+  </si>
+  <si>
+    <t>61.17</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>受让一球</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551742</t>
+  </si>
+  <si>
+    <t>79540554</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>15.26</t>
+  </si>
+  <si>
+    <t>21.15</t>
+  </si>
+  <si>
+    <t>63.59</t>
+  </si>
+  <si>
+    <t>15.72</t>
+  </si>
+  <si>
+    <t>24.19</t>
+  </si>
+  <si>
+    <t>60.09</t>
+  </si>
+  <si>
+    <t>80270291</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>14.52</t>
+  </si>
+  <si>
+    <t>23.24</t>
+  </si>
+  <si>
+    <t>62.24</t>
+  </si>
+  <si>
+    <t>17.36</t>
+  </si>
+  <si>
+    <t>24.79</t>
+  </si>
+  <si>
+    <t>57.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-08-11 03:00 </t>
   </si>
   <si>
     <t>Manchester United</t>
@@ -161,39 +952,30 @@
     <t>曼彻斯特联</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>65.8%</t>
+  </si>
+  <si>
     <t>Leicester City</t>
   </si>
   <si>
     <t>莱切斯特城</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>79540573</t>
   </si>
   <si>
-    <t>William Hill</t>
-  </si>
-  <si>
-    <t>威廉希尔(英国)</t>
-  </si>
-  <si>
     <t>1.33</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>68.68</t>
   </si>
   <si>
@@ -212,9 +994,6 @@
     <t>14.69</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
     <t>0.78</t>
   </si>
   <si>
@@ -224,36 +1003,15 @@
     <t>1.08</t>
   </si>
   <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
     <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551741</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>79540556</t>
   </si>
   <si>
-    <t>Ladbrokes</t>
-  </si>
-  <si>
-    <t>立博(英国)</t>
-  </si>
-  <si>
     <t>1.29</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>1.53</t>
   </si>
   <si>
@@ -275,30 +1033,12 @@
     <t>14.46</t>
   </si>
   <si>
-    <t>370</t>
-  </si>
-  <si>
     <t>80200558</t>
   </si>
   <si>
-    <t>Oddset</t>
-  </si>
-  <si>
-    <t>Oddset(德国)</t>
-  </si>
-  <si>
     <t>1.3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
     <t>6.25</t>
   </si>
   <si>
@@ -320,741 +1060,7 @@
     <t>13.89</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018-08-12 00:30 星期日_x000D_
-                </t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>狼队</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>65.2%</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>埃弗顿</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>34.2%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>79540574</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>41.72</t>
-  </si>
-  <si>
-    <t>28.68</t>
-  </si>
-  <si>
-    <t>29.6</t>
-  </si>
-  <si>
-    <t>40.64</t>
-  </si>
-  <si>
-    <t>29.21</t>
-  </si>
-  <si>
-    <t>30.15</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>平手/半球</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551747</t>
-  </si>
-  <si>
-    <t>79540560</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>34.15</t>
-  </si>
-  <si>
-    <t>27.12</t>
-  </si>
-  <si>
-    <t>38.74</t>
-  </si>
-  <si>
-    <t>39.74</t>
-  </si>
-  <si>
-    <t>30.13</t>
-  </si>
-  <si>
-    <t>80268454</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>40.25</t>
-  </si>
-  <si>
-    <t>28.85</t>
-  </si>
-  <si>
-    <t>30.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018-08-11 22:00 星期六_x000D_
-                </t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>沃特福德</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>28.9%</t>
-  </si>
-  <si>
-    <t>Brighton   Hove Albion</t>
-  </si>
-  <si>
-    <t>布莱顿</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>23.7%</t>
-  </si>
-  <si>
-    <t>79540576</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>35.89</t>
-  </si>
-  <si>
-    <t>32.76</t>
-  </si>
-  <si>
-    <t>31.34</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551746</t>
-  </si>
-  <si>
-    <t>79540559</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>42.01</t>
-  </si>
-  <si>
-    <t>27.18</t>
-  </si>
-  <si>
-    <t>30.81</t>
-  </si>
-  <si>
-    <t>38.85</t>
-  </si>
-  <si>
-    <t>31.08</t>
-  </si>
-  <si>
-    <t>30.08</t>
-  </si>
-  <si>
-    <t>80270300</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>41.25</t>
-  </si>
-  <si>
-    <t>29.87</t>
-  </si>
-  <si>
-    <t>28.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018-08-12 20:30 星期日_x000D_
-                </t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>南安普敦</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18.4%</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>伯恩利</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>36.8%</t>
-  </si>
-  <si>
-    <t>79540575</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>48.42</t>
-  </si>
-  <si>
-    <t>28.46</t>
-  </si>
-  <si>
-    <t>23.12</t>
-  </si>
-  <si>
-    <t>47.27</t>
-  </si>
-  <si>
-    <t>29.09</t>
-  </si>
-  <si>
-    <t>23.64</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>半球/一球</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>半球</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551745</t>
-  </si>
-  <si>
-    <t>79540558</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>50.5</t>
-  </si>
-  <si>
-    <t>26.4</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>47.14</t>
-  </si>
-  <si>
-    <t>30.41</t>
-  </si>
-  <si>
-    <t>22.45</t>
-  </si>
-  <si>
-    <t>80290795</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>48.06</t>
-  </si>
-  <si>
-    <t>27.91</t>
-  </si>
-  <si>
-    <t>24.03</t>
-  </si>
-  <si>
-    <t>46.92</t>
-  </si>
-  <si>
-    <t>29.93</t>
-  </si>
-  <si>
-    <t>23.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018-08-11 19:30 星期六_x000D_
-                </t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>纽卡斯尔联</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>31.6%</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>托特纳姆热刺</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>60.5%</t>
-  </si>
-  <si>
-    <t>79540578</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>20.46</t>
-  </si>
-  <si>
-    <t>26.31</t>
-  </si>
-  <si>
-    <t>53.23</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>28.87</t>
-  </si>
-  <si>
-    <t>50.73</t>
-  </si>
-  <si>
-    <t>受让半球</t>
-  </si>
-  <si>
-    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551744</t>
-  </si>
-  <si>
-    <t>79540557</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>21.25</t>
-  </si>
-  <si>
-    <t>25.56</t>
-  </si>
-  <si>
-    <t>53.19</t>
-  </si>
-  <si>
-    <t>21.85</t>
-  </si>
-  <si>
-    <t>27.03</t>
-  </si>
-  <si>
-    <t>51.13</t>
-  </si>
-  <si>
-    <t>80238068</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>28.67</t>
-  </si>
-  <si>
-    <t>26.06</t>
-  </si>
-  <si>
-    <t>45.27</t>
-  </si>
-  <si>
-    <t>25.42</t>
-  </si>
-  <si>
-    <t>27.88</t>
-  </si>
-  <si>
-    <t>46.71</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>利物浦</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>55.3%</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>西汉姆联</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>26.3%</t>
-  </si>
-  <si>
-    <t>79540577</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>71.8</t>
-  </si>
-  <si>
-    <t>16.71</t>
-  </si>
-  <si>
-    <t>11.49</t>
-  </si>
-  <si>
-    <t>77.56</t>
-  </si>
-  <si>
-    <t>14.56</t>
-  </si>
-  <si>
-    <t>7.89</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>球半/两球</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551743</t>
-  </si>
-  <si>
-    <t>79540555</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>79.07</t>
-  </si>
-  <si>
-    <t>13.22</t>
-  </si>
-  <si>
-    <t>7.71</t>
-  </si>
-  <si>
-    <t>78.03</t>
-  </si>
-  <si>
-    <t>14.65</t>
-  </si>
-  <si>
-    <t>7.32</t>
-  </si>
-  <si>
-    <t>80290780</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>70.96</t>
-  </si>
-  <si>
-    <t>18.22</t>
-  </si>
-  <si>
-    <t>10.82</t>
-  </si>
-  <si>
-    <t>73.52</t>
-  </si>
-  <si>
-    <t>17.35</t>
-  </si>
-  <si>
-    <t>9.13</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>哈德斯菲尔德</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>切尔西</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>79540571</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>21.04</t>
-  </si>
-  <si>
-    <t>60.74</t>
-  </si>
-  <si>
-    <t>13.55</t>
-  </si>
-  <si>
-    <t>25.28</t>
-  </si>
-  <si>
-    <t>61.17</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>受让一球</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>http://vip.titan007.com/AsianOdds_n.aspx?id=1551742</t>
-  </si>
-  <si>
-    <t>79540554</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>15.26</t>
-  </si>
-  <si>
-    <t>21.15</t>
-  </si>
-  <si>
-    <t>63.59</t>
-  </si>
-  <si>
-    <t>15.72</t>
-  </si>
-  <si>
-    <t>24.19</t>
-  </si>
-  <si>
-    <t>60.09</t>
-  </si>
-  <si>
-    <t>80270291</t>
-  </si>
-  <si>
-    <t>14.52</t>
-  </si>
-  <si>
-    <t>23.24</t>
-  </si>
-  <si>
-    <t>62.24</t>
-  </si>
-  <si>
-    <t>17.36</t>
-  </si>
-  <si>
-    <t>24.79</t>
-  </si>
-  <si>
-    <t>57.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018-08-12 23:00 星期日_x000D_
-                </t>
+    <t xml:space="preserve"> 2018-08-12 23:00 </t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -1813,116 +1819,116 @@
       <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-      <c r="M2">
-        <v>-1</v>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2">
-        <v>-1</v>
-      </c>
-      <c r="Q2">
-        <v>-1</v>
-      </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>-1</v>
-      </c>
-      <c r="T2">
-        <v>-1</v>
-      </c>
-      <c r="U2">
-        <v>-1</v>
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AA2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AB2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AD2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AE2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AG2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AH2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AI2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AJ2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AM2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AN2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AO2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AP2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AQ2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="25" customHeight="1">
@@ -1930,7 +1936,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1947,116 +1953,116 @@
       <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-      <c r="M3">
-        <v>-1</v>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3">
-        <v>-1</v>
-      </c>
-      <c r="Q3">
-        <v>-1</v>
-      </c>
-      <c r="R3">
-        <v>-1</v>
-      </c>
-      <c r="S3">
-        <v>-1</v>
-      </c>
-      <c r="T3">
-        <v>-1</v>
-      </c>
-      <c r="U3">
-        <v>-1</v>
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
       </c>
       <c r="V3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" t="s">
         <v>73</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AN3" t="s">
         <v>74</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AO3" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AP3" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AQ3" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AR3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="25" customHeight="1">
@@ -2064,7 +2070,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -2081,116 +2087,116 @@
       <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4">
-        <v>-1</v>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4">
-        <v>-1</v>
-      </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-      <c r="S4">
-        <v>-1</v>
-      </c>
-      <c r="T4">
-        <v>-1</v>
-      </c>
-      <c r="U4">
-        <v>-1</v>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" t="s">
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Z4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="AB4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AI4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AJ4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AK4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AM4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AN4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AO4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AP4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AQ4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="25" customHeight="1">
@@ -2207,124 +2213,124 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="S5" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Z5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD5" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AE5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AF5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AG5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AH5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AI5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AJ5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AN5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AP5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AQ5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="25" customHeight="1">
@@ -2332,7 +2338,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -2341,124 +2347,124 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="R6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="S6" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN6" t="s">
         <v>130</v>
       </c>
-      <c r="W6" t="s">
-        <v>74</v>
-      </c>
-      <c r="X6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AO6" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AP6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AR6" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="25" customHeight="1">
@@ -2466,7 +2472,7 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -2475,106 +2481,106 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="AA7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AE7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AF7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AG7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AK7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AN7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AP7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AQ7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="25" customHeight="1">
@@ -2591,124 +2597,124 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="R8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="S8" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Z8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AC8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AD8" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="AE8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AH8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AI8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AJ8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AK8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL8" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="AM8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AN8" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="AO8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AP8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AQ8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="25" customHeight="1">
@@ -2716,7 +2722,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -2725,124 +2731,124 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="R9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="S9" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="W9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Z9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AA9" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="AB9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
         <v>167</v>
       </c>
-      <c r="AC9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AM9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN9" t="s">
         <v>168</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AO9" t="s">
         <v>169</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AP9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>170</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AR9" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="25" customHeight="1">
@@ -2850,7 +2856,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -2859,106 +2865,106 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="R10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="S10" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Z10" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="AE10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AF10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AK10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL10" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="AM10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AN10" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="AO10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AP10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AQ10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="25" customHeight="1">
@@ -2975,124 +2981,124 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="S11" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="V11" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Z11" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="AA11" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="AB11" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="AC11" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="AD11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AE11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AF11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AG11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AH11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AI11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AJ11" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AK11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL11" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AN11" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="AO11" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AP11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ11" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="25" customHeight="1">
@@ -3100,7 +3106,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -3109,82 +3115,82 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="M12" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R12" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="S12" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="V12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="W12" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z12" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="AA12" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="AB12" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="AC12" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="AD12" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s">
         <v>210</v>
@@ -3205,28 +3211,28 @@
         <v>215</v>
       </c>
       <c r="AK12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL12" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AN12" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="AO12" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AP12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ12" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="25" customHeight="1">
@@ -3234,7 +3240,7 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -3243,124 +3249,124 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R13" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="S13" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="V13" t="s">
         <v>216</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z13" t="s">
         <v>217</v>
       </c>
-      <c r="Z13" t="s">
-        <v>116</v>
-      </c>
       <c r="AA13" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="AB13" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="AC13" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="AD13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" t="s">
         <v>219</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>220</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>221</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>222</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>223</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>224</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>225</v>
-      </c>
       <c r="AK13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL13" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AN13" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="AO13" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AP13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ13" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="25" customHeight="1">
@@ -3377,124 +3383,124 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" t="s">
         <v>226</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>227</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
         <v>228</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
         <v>229</v>
       </c>
-      <c r="I14" t="s">
+      <c r="O14" t="s">
         <v>230</v>
       </c>
-      <c r="J14" t="s">
+      <c r="P14" t="s">
         <v>231</v>
       </c>
-      <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="Q14" t="s">
         <v>232</v>
       </c>
-      <c r="M14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="R14" t="s">
         <v>233</v>
       </c>
-      <c r="O14" t="s">
+      <c r="S14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" t="s">
         <v>234</v>
       </c>
-      <c r="P14" t="s">
+      <c r="W14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y14" t="s">
         <v>235</v>
       </c>
-      <c r="Q14" t="s">
-        <v>112</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="Z14" t="s">
         <v>236</v>
       </c>
-      <c r="S14" t="s">
-        <v>112</v>
-      </c>
-      <c r="T14" t="s">
-        <v>105</v>
-      </c>
-      <c r="U14" t="s">
-        <v>111</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="AA14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB14" t="s">
         <v>237</v>
       </c>
-      <c r="W14" t="s">
-        <v>51</v>
-      </c>
-      <c r="X14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="AC14" t="s">
         <v>238</v>
       </c>
-      <c r="Z14" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>239</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AE14" t="s">
         <v>240</v>
       </c>
-      <c r="AC14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>241</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>242</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>243</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>244</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>245</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL14" t="s">
         <v>246</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>126</v>
       </c>
       <c r="AM14" t="s">
         <v>247</v>
       </c>
       <c r="AN14" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="AO14" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="AP14" t="s">
         <v>247</v>
       </c>
       <c r="AQ14" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="25" customHeight="1">
@@ -3502,7 +3508,7 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -3511,124 +3517,124 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" t="s">
         <v>226</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>227</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
         <v>228</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
         <v>229</v>
       </c>
-      <c r="I15" t="s">
+      <c r="O15" t="s">
         <v>230</v>
       </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
         <v>231</v>
       </c>
-      <c r="K15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="Q15" t="s">
         <v>232</v>
       </c>
-      <c r="M15" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
         <v>233</v>
       </c>
-      <c r="O15" t="s">
-        <v>234</v>
-      </c>
-      <c r="P15" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>112</v>
-      </c>
-      <c r="R15" t="s">
-        <v>236</v>
-      </c>
       <c r="S15" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="W15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Y15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z15" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="s">
         <v>239</v>
       </c>
       <c r="AB15" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AC15" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="AD15" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AE15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AF15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AG15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AH15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AI15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AJ15" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AK15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL15" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="AM15" t="s">
         <v>247</v>
       </c>
       <c r="AN15" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="AO15" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="AP15" t="s">
         <v>247</v>
       </c>
       <c r="AQ15" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="25" customHeight="1">
@@ -3636,7 +3642,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -3645,124 +3651,124 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" t="s">
         <v>226</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>227</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
         <v>228</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" t="s">
         <v>229</v>
       </c>
-      <c r="I16" t="s">
+      <c r="O16" t="s">
         <v>230</v>
       </c>
-      <c r="J16" t="s">
+      <c r="P16" t="s">
         <v>231</v>
       </c>
-      <c r="K16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="Q16" t="s">
         <v>232</v>
       </c>
-      <c r="M16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
         <v>233</v>
       </c>
-      <c r="O16" t="s">
-        <v>234</v>
-      </c>
-      <c r="P16" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>112</v>
-      </c>
-      <c r="R16" t="s">
-        <v>236</v>
-      </c>
       <c r="S16" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="V16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="W16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y16" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="Z16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AA16" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="AB16" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="AC16" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="AD16" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="AE16" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AF16" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AH16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AI16" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AJ16" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AK16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL16" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="AM16" t="s">
         <v>247</v>
       </c>
       <c r="AN16" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="AO16" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="AP16" t="s">
         <v>247</v>
       </c>
       <c r="AQ16" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="25" customHeight="1">
@@ -3779,124 +3785,124 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" t="s">
+        <v>274</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>275</v>
+      </c>
+      <c r="O17" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>263</v>
+      </c>
+      <c r="R17" t="s">
+        <v>228</v>
+      </c>
+      <c r="S17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" t="s">
+        <v>278</v>
+      </c>
+      <c r="W17" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE17" t="s">
         <v>266</v>
       </c>
-      <c r="G17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" t="s">
-        <v>268</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" t="s">
-        <v>269</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" t="s">
-        <v>105</v>
-      </c>
-      <c r="N17" t="s">
-        <v>270</v>
-      </c>
-      <c r="O17" t="s">
-        <v>271</v>
-      </c>
-      <c r="P17" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>273</v>
-      </c>
-      <c r="R17" t="s">
-        <v>274</v>
-      </c>
-      <c r="S17" t="s">
-        <v>111</v>
-      </c>
-      <c r="T17" t="s">
-        <v>111</v>
-      </c>
-      <c r="U17" t="s">
-        <v>111</v>
-      </c>
-      <c r="V17" t="s">
-        <v>275</v>
-      </c>
-      <c r="W17" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>279</v>
-      </c>
       <c r="AF17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AH17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AI17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN17" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP17" t="s">
         <v>287</v>
       </c>
-      <c r="AO17" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>286</v>
-      </c>
       <c r="AQ17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR17" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:44" ht="25" customHeight="1">
@@ -3904,7 +3910,7 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -3913,124 +3919,124 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="J18" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="N18" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O18" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P18" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q18" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="R18" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="S18" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="T18" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
+        <v>290</v>
+      </c>
+      <c r="W18" t="s">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y18" t="s">
         <v>291</v>
       </c>
-      <c r="W18" t="s">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA18" t="s">
         <v>292</v>
       </c>
-      <c r="Z18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>278</v>
-      </c>
       <c r="AB18" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AC18" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="AD18" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="AE18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AH18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AI18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AJ18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN18" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP18" t="s">
         <v>287</v>
       </c>
-      <c r="AO18" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>286</v>
-      </c>
       <c r="AQ18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR18" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:44" ht="25" customHeight="1">
@@ -4038,7 +4044,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -4047,82 +4053,82 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H19" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="J19" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O19" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q19" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="R19" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="S19" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="T19" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X19" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y19" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Z19" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AA19" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AB19" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="AC19" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="AD19" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="AE19" t="s">
         <v>303</v>
@@ -4143,28 +4149,28 @@
         <v>308</v>
       </c>
       <c r="AK19" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP19" t="s">
         <v>287</v>
       </c>
-      <c r="AO19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>286</v>
-      </c>
       <c r="AQ19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR19" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:44" ht="25" customHeight="1">
@@ -4181,124 +4187,124 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I20" t="s">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="K20" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="R20" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="V20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y20" t="s">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="Z20" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AA20" t="s">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="AC20" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="AD20" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="AE20" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="AF20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG20" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AH20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AI20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AJ20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AK20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO20" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="AP20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AQ20" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:44" ht="25" customHeight="1">
@@ -4306,7 +4312,7 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -4315,124 +4321,124 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I21" t="s">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="R21" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="V21" t="s">
+        <v>330</v>
+      </c>
+      <c r="W21" t="s">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN21" t="s">
         <v>328</v>
       </c>
-      <c r="W21" t="s">
-        <v>74</v>
-      </c>
-      <c r="X21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="AO21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR21" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>334</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>335</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>324</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>325</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>325</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:44" ht="25" customHeight="1">
@@ -4440,7 +4446,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -4449,124 +4455,124 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I22" t="s">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L22" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="R22" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="V22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="W22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y22" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR22" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>343</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>324</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>325</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>325</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:44" ht="25" customHeight="1">
@@ -4583,124 +4589,124 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G23" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H23" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I23" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="N23" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O23" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P23" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q23" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="T23" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="V23" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="W23" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y23" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="Z23" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="AA23" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="AB23" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="AC23" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="AD23" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="AE23" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="AF23" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="AG23" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="AH23" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI23" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AJ23" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AK23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL23" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AM23" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AO23" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AP23" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AQ23" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:44" ht="25" customHeight="1">
@@ -4708,7 +4714,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -4717,124 +4723,124 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G24" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I24" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="J24" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K24" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="N24" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O24" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P24" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q24" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="T24" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="V24" t="s">
+        <v>365</v>
+      </c>
+      <c r="W24" t="s">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL24" t="s">
         <v>361</v>
       </c>
-      <c r="W24" t="s">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="AM24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>363</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG24" t="s">
+      <c r="AR24" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>365</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>357</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>247</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>358</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>359</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:44" ht="25" customHeight="1">
@@ -4842,7 +4848,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -4851,124 +4857,124 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G25" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H25" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I25" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="J25" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="M25" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="N25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O25" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P25" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q25" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="T25" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="V25" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="W25" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Z25" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AA25" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="AB25" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AC25" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="AD25" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AE25" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AF25" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AG25" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AH25" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AI25" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AJ25" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AK25" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL25" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AM25" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="AN25" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AO25" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AP25" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AQ25" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:44" ht="25" customHeight="1">
@@ -4985,124 +4991,124 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H26" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="N26" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O26" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P26" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q26" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="R26" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="S26" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="V26" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y26" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="Z26" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="AA26" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="AB26" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>388</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO26" t="s">
         <v>132</v>
       </c>
-      <c r="AD26" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>384</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>128</v>
-      </c>
       <c r="AP26" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AQ26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="25" customHeight="1">
@@ -5110,7 +5116,7 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -5119,124 +5125,124 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H27" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K27" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M27" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="N27" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O27" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P27" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q27" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="R27" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="S27" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="V27" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="W27" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="Z27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>392</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO27" t="s">
         <v>132</v>
       </c>
-      <c r="AA27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>388</v>
-      </c>
-      <c r="AI27" t="s">
+      <c r="AP27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR27" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>390</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:44" ht="25" customHeight="1">
@@ -5244,7 +5250,7 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -5253,124 +5259,124 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G28" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H28" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K28" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="N28" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O28" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P28" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q28" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="R28" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="S28" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="V28" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="W28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y28" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="Z28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AA28" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AB28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AC28" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AD28" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="AE28" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AF28" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="AG28" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AH28" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AI28" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AJ28" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AK28" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM28" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AO28" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AP28" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AQ28" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:44" ht="25" customHeight="1">
@@ -5387,124 +5393,124 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G29" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H29" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I29" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N29" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O29" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="Q29" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="R29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="S29" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="T29" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="V29" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="W29" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X29" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Z29" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="AA29" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AB29" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AC29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AE29" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AF29" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AG29" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AH29" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AI29" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AJ29" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AK29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AN29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AO29" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AP29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AQ29" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:44" ht="25" customHeight="1">
@@ -5512,7 +5518,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -5521,124 +5527,124 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G30" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H30" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I30" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N30" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O30" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="Q30" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="R30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="S30" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="T30" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="U30" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="V30" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="W30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Z30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AA30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AB30" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO30" t="s">
         <v>417</v>
       </c>
-      <c r="AC30" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AP30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>418</v>
       </c>
-      <c r="AE30" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH30" t="s">
+      <c r="AR30" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>420</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>421</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>413</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>414</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:44" ht="25" customHeight="1">
@@ -5646,7 +5652,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -5655,124 +5661,124 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>402</v>
+      </c>
+      <c r="G31" t="s">
+        <v>403</v>
+      </c>
+      <c r="H31" t="s">
+        <v>404</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>405</v>
+      </c>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" t="s">
+        <v>406</v>
+      </c>
+      <c r="O31" t="s">
+        <v>407</v>
+      </c>
+      <c r="P31" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>408</v>
+      </c>
+      <c r="R31" t="s">
+        <v>155</v>
+      </c>
+      <c r="S31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" t="s">
+        <v>191</v>
+      </c>
+      <c r="V31" t="s">
+        <v>426</v>
+      </c>
+      <c r="W31" t="s">
+        <v>95</v>
+      </c>
+      <c r="X31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA31" t="s">
         <v>146</v>
       </c>
-      <c r="F31" t="s">
-        <v>398</v>
-      </c>
-      <c r="G31" t="s">
-        <v>399</v>
-      </c>
-      <c r="H31" t="s">
-        <v>400</v>
-      </c>
-      <c r="I31" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" t="s">
-        <v>401</v>
-      </c>
-      <c r="K31" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" t="s">
-        <v>105</v>
-      </c>
-      <c r="M31" t="s">
-        <v>105</v>
-      </c>
-      <c r="N31" t="s">
-        <v>402</v>
-      </c>
-      <c r="O31" t="s">
-        <v>403</v>
-      </c>
-      <c r="P31" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>404</v>
-      </c>
-      <c r="R31" t="s">
-        <v>151</v>
-      </c>
-      <c r="S31" t="s">
-        <v>91</v>
-      </c>
-      <c r="T31" t="s">
-        <v>111</v>
-      </c>
-      <c r="U31" t="s">
-        <v>232</v>
-      </c>
-      <c r="V31" t="s">
-        <v>422</v>
-      </c>
-      <c r="W31" t="s">
-        <v>88</v>
-      </c>
-      <c r="X31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>142</v>
-      </c>
       <c r="AB31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC31" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AD31" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AE31" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AF31" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="AG31" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AH31" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AI31" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ31" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AK31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AM31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AN31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AO31" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AP31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AQ31" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
